--- a/产品列表.xlsx
+++ b/产品列表.xlsx
@@ -14,57 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>OA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>office automation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公自动化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterprise resource planning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业资源计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户关系管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer relationship management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品中心（电商）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓储系统（WMS）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流系统（TMS）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购系统（PMS）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户关系系统（CRM）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业资源计划（ERP）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公自动化（OA）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,65 +409,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="32.625" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/产品列表.xlsx
+++ b/产品列表.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
